--- a/記事ネタ.xlsx
+++ b/記事ネタ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Shikataramuno.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Shikataramuno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F2DCE6-2189-4079-8715-862958756DAE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B846B-63F1-4D53-9745-20E7644CBD6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13875" activeTab="1" xr2:uid="{04E17D57-2CB1-4F61-80BB-267A744C8FFD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13875" xr2:uid="{04E17D57-2CB1-4F61-80BB-267A744C8FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="エンジニア's メランコリ" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>組み込みエンジニアがフロントエンドエンジニアに大変身</t>
     <rPh sb="0" eb="1">
@@ -541,6 +541,94 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エディタとブラウザでできる手軽さの反面、組み込みで慣れたコンパイル、ターゲットへの書き込みといった手順上のノリみたいなのがなく、ペースがつかめない</t>
+    <rPh sb="13" eb="15">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でも、node,npmなどを使うと同じ感覚でノリが良くなる</t>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実は、いろんなライブラリを使って開発するのとサーバへのアクセス回数を削減するSPAというアーキテクチャの普及、スクリプトの難読化なので理由から</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクゲン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>フキュウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ナンドク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルド、デプロイという流れが基本になってきている</t>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キホン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -906,74 +994,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EE2C6C-451C-43B6-94EE-8B5400DA5557}">
-  <dimension ref="B3:D18"/>
+  <dimension ref="A3:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -988,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D28BA-373A-446C-BD25-B46D1BA28E04}">
   <dimension ref="A2:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/記事ネタ.xlsx
+++ b/記事ネタ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Shikataramuno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B846B-63F1-4D53-9745-20E7644CBD6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2A0DF2-11FA-4F67-BF69-C8AD5A519CDB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13875" xr2:uid="{04E17D57-2CB1-4F61-80BB-267A744C8FFD}"/>
   </bookViews>
@@ -637,7 +637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +648,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -676,8 +684,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,13 +1008,13 @@
   <dimension ref="A3:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1096,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D28BA-373A-446C-BD25-B46D1BA28E04}">
   <dimension ref="A2:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1108,7 +1119,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1260,6 +1271,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/記事ネタ.xlsx
+++ b/記事ネタ.xlsx
@@ -8,32 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Shikataramuno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2A0DF2-11FA-4F67-BF69-C8AD5A519CDB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1E1C56-BB0B-4F29-8E61-C8A02E8B7973}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13875" xr2:uid="{04E17D57-2CB1-4F61-80BB-267A744C8FFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="エンジニア's メランコリ" sheetId="1" r:id="rId1"/>
+    <sheet name="エンジニア's 随筆" sheetId="1" r:id="rId1"/>
     <sheet name="プログラミング技術" sheetId="2" r:id="rId2"/>
     <sheet name="ソフトウエア開発" sheetId="3" r:id="rId3"/>
     <sheet name="アプリ開発" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>組み込みエンジニアがフロントエンドエンジニアに大変身</t>
     <rPh sb="0" eb="1">
@@ -172,19 +167,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prottypeチェーンとインスタンス変数、副作用のない関数</t>
-    <rPh sb="19" eb="21">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>フクサヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>audio要素の使い方</t>
     <rPh sb="5" eb="7">
       <t>ヨウソ</t>
@@ -349,10 +331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Node、npm、VSCode、Vue-cli</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>構成管理</t>
     <rPh sb="0" eb="2">
       <t>コウセイ</t>
@@ -630,6 +608,298 @@
     <rPh sb="14" eb="16">
       <t>キホン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツール、ライブラリ、フレームワーク　とてもたくさんあって、何が何のために必要かさっぱり？</t>
+    <rPh sb="29" eb="30">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンドといえば、HTMLにCSS、そしてJavascript。プログラミング経験が生かせて入りやすい領域と思い、JavaScriptをマスターするところからスタートした</t>
+    <rPh sb="42" eb="44">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと調べただけでもうお腹いっぱい。テキストエディタでちょこっとコードを書いて、HTMLに読み込むようにしてWebサーバのルートにおく</t>
+    <rPh sb="4" eb="5">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザで読み込んでデバッグする　っといった開発スタイルがJavascriptに対してもってたイメージだったが、近代Javascriptはそんなイメージとは全然違った</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キンダイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ゼンゼン</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実はマスターまで随分と距離があることを実感。（初めてC言語勉強したときの感覚。年は取ったが情熱は学生の頃のまま　のハズ）と言い聞かせ飛び込む</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ズイブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウネツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツールやライブラリ、フレームを俯瞰的に把握するため　　　　の書籍を購入、これが役立った。</t>
+    <rPh sb="15" eb="17">
+      <t>フカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヤクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node, npm, vue を基本に判らないなりに悪戦苦闘し、半年。ようやくなんとなく見えてきました。</t>
+    <rPh sb="16" eb="18">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>アクセン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>クトウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ハントシ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node, npm, yarn, anguler, angulerJS, react, vue, spa, PWA, ssr  う~~っん　なんのことか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Prototypeチェーンとインスタンス変数、副作用のない関数</t>
+    <rPh sb="20" eb="22">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>フクサヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Angular, Vue, React　はフロントエンドのフレームワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spa, PWA, SSR はアーキテクチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざっくり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node, npm などはビルド環境の構築に必須</t>
+    <rPh sb="16" eb="18">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウチク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンド開発やってみたいが、どこから手を付けたらいいか迷っている人向けに参考になればと思い書きました</t>
+    <rPh sb="7" eb="9">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>マヨ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ざくっとこんな理解です。</t>
+    <rPh sb="7" eb="9">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご参考になれば幸いです</t>
+    <rPh sb="1" eb="3">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は、具体的なアプリ開発をやってみて得たノウハウを記事にしていきます。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node、npm、VSCode、Vue-cli、@vue/cli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typescript</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1005,95 +1275,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EE2C6C-451C-43B6-94EE-8B5400DA5557}">
-  <dimension ref="A3:C21"/>
+  <dimension ref="A3:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1105,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D28BA-373A-446C-BD25-B46D1BA28E04}">
-  <dimension ref="A2:C53"/>
+  <dimension ref="A2:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1135,12 +1483,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -1175,97 +1523,102 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C37" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B49" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1280,24 +1633,24 @@
   <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1307,12 +1660,12 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1333,22 +1686,22 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
